--- a/pred_ohlcv/54_21/2019-10-31 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>32140.11389999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-19534.88610000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>62535.92219999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>62497.92219999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>67704.23709999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -990,7 +990,7 @@
         <v>258059.5936</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>287900.3644999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>372333.2019999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>371512.4253999999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>450953.7180999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>368152.0286</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>368806.0286</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>307998.7289999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>305158.7289999999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>317236.8014999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>309521.3643</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>397163.2858000001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>335467.0817</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>137756.3256538462</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>10581.51395384618</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2927.482146153818</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>49349.46635384618</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>49349.46635384618</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>115004.1192538462</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>117004.1192538462</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>138934.7846538462</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>174403.3330538462</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>173403.3330538462</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>32140.11389999998</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-19534.88610000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>100928.1647</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>62535.92219999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>62497.92219999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>67704.23709999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>258059.5936</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>287900.3644999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>372333.2019999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>371512.4253999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>450953.7180999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>307998.7289999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>335467.0817</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>137756.3256538462</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>115004.1192538462</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>117004.1192538462</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>138934.7846538462</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>174403.3330538462</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>173403.3330538462</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
